--- a/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
+++ b/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
@@ -1889,6 +1889,26 @@
         <v>0.34472</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.22839</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.1265</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.20794</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.43721</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.34975</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
+++ b/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
@@ -1909,6 +1909,26 @@
         <v>0.34975</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.23083</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.13201</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.20343</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.43377</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.33073</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
+++ b/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
@@ -1929,6 +1929,26 @@
         <v>0.33073</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.21852</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.17502</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.19643</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.41007</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.32607</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
+++ b/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
@@ -37,7 +37,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -75,7 +75,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,6 +749,26 @@
         <v>0.32607</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.24178</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.21784</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.23053</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.30989</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.25091</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
+++ b/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
@@ -769,6 +769,26 @@
         <v>0.25091</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.29039</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.22027</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.39337</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.09601</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.04562</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
+++ b/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
@@ -789,6 +789,26 @@
         <v>0.04562</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.27644</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.24879</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.38341</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0914</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.06127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
+++ b/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
@@ -809,6 +809,26 @@
         <v>0.06127</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2826</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.27216</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.31054</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.13474</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.04725</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
+++ b/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
@@ -829,6 +829,26 @@
         <v>0.04725</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.31989</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.21466</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.31647</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.15368</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.04725</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
+++ b/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
@@ -391,462 +391,302 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44958</v>
+        <v>45292</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1638</v>
+        <v>0.20452</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08051</v>
+        <v>0.07149</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09424</v>
+        <v>0.26444</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6613</v>
+        <v>0.45959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.27175</v>
+        <v>0.36522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44986</v>
+        <v>45323</v>
       </c>
       <c r="B3" t="n">
-        <v>0.16411</v>
+        <v>0.21698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06584</v>
+        <v>0.1583</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08699</v>
+        <v>0.20401</v>
       </c>
       <c r="E3" t="n">
-        <v>0.68291</v>
+        <v>0.42075</v>
       </c>
       <c r="F3" t="n">
-        <v>0.26997</v>
+        <v>0.3683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45017</v>
+        <v>45352</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18044</v>
+        <v>0.25876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06432</v>
+        <v>0.12537</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11526</v>
+        <v>0.18744</v>
       </c>
       <c r="E4" t="n">
-        <v>0.63983</v>
+        <v>0.42847</v>
       </c>
       <c r="F4" t="n">
-        <v>0.31868</v>
+        <v>0.34472</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45047</v>
+        <v>45383</v>
       </c>
       <c r="B5" t="n">
-        <v>0.16547</v>
+        <v>0.22839</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10488</v>
+        <v>0.1265</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11107</v>
+        <v>0.20794</v>
       </c>
       <c r="E5" t="n">
-        <v>0.61843</v>
+        <v>0.43721</v>
       </c>
       <c r="F5" t="n">
-        <v>0.45423</v>
+        <v>0.34975</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45078</v>
+        <v>45413</v>
       </c>
       <c r="B6" t="n">
-        <v>0.16107</v>
+        <v>0.23083</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06943</v>
+        <v>0.13201</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16877</v>
+        <v>0.20343</v>
       </c>
       <c r="E6" t="n">
-        <v>0.60058</v>
+        <v>0.43377</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4537</v>
+        <v>0.33073</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45108</v>
+        <v>45444</v>
       </c>
       <c r="B7" t="n">
-        <v>0.16508</v>
+        <v>0.21852</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09877</v>
+        <v>0.17502</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18503</v>
+        <v>0.19643</v>
       </c>
       <c r="E7" t="n">
-        <v>0.55097</v>
+        <v>0.41007</v>
       </c>
       <c r="F7" t="n">
-        <v>0.40366</v>
+        <v>0.32607</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45139</v>
+        <v>45474</v>
       </c>
       <c r="B8" t="n">
-        <v>0.16704</v>
+        <v>0.24537</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07688</v>
+        <v>0.20499</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23648</v>
+        <v>0.13893</v>
       </c>
       <c r="E8" t="n">
-        <v>0.51945</v>
+        <v>0.41075</v>
       </c>
       <c r="F8" t="n">
-        <v>0.41166</v>
+        <v>0.32607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45170</v>
+        <v>45505</v>
       </c>
       <c r="B9" t="n">
-        <v>0.17733</v>
+        <v>0.24178</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05685</v>
+        <v>0.21784</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24603</v>
+        <v>0.23053</v>
       </c>
       <c r="E9" t="n">
-        <v>0.51964</v>
+        <v>0.30989</v>
       </c>
       <c r="F9" t="n">
-        <v>0.41359</v>
+        <v>0.25091</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45200</v>
+        <v>45536</v>
       </c>
       <c r="B10" t="n">
-        <v>0.20077</v>
+        <v>0.29039</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07987</v>
+        <v>0.22027</v>
       </c>
       <c r="D10" t="n">
-        <v>0.31095</v>
+        <v>0.39337</v>
       </c>
       <c r="E10" t="n">
-        <v>0.40826</v>
+        <v>0.09601</v>
       </c>
       <c r="F10" t="n">
-        <v>0.33247</v>
+        <v>0.04562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45231</v>
+        <v>45566</v>
       </c>
       <c r="B11" t="n">
-        <v>0.20734</v>
+        <v>0.27644</v>
       </c>
       <c r="C11" t="n">
-        <v>0.11721</v>
+        <v>0.24879</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25153</v>
+        <v>0.38341</v>
       </c>
       <c r="E11" t="n">
-        <v>0.42377</v>
+        <v>0.0914</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3183</v>
+        <v>0.06127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45261</v>
+        <v>45597</v>
       </c>
       <c r="B12" t="n">
-        <v>0.16534</v>
+        <v>0.2826</v>
       </c>
       <c r="C12" t="n">
-        <v>0.083</v>
+        <v>0.27216</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3188</v>
+        <v>0.31054</v>
       </c>
       <c r="E12" t="n">
-        <v>0.43271</v>
+        <v>0.13474</v>
       </c>
       <c r="F12" t="n">
-        <v>0.32136</v>
+        <v>0.04725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45292</v>
+        <v>45627</v>
       </c>
       <c r="B13" t="n">
-        <v>0.20452</v>
+        <v>0.31989</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07149</v>
+        <v>0.21466</v>
       </c>
       <c r="D13" t="n">
-        <v>0.26444</v>
+        <v>0.31647</v>
       </c>
       <c r="E13" t="n">
-        <v>0.45959</v>
+        <v>0.15368</v>
       </c>
       <c r="F13" t="n">
-        <v>0.36522</v>
+        <v>0.04725</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45323</v>
+        <v>45658</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21698</v>
+        <v>0.27722</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1583</v>
+        <v>0.13984</v>
       </c>
       <c r="D14" t="n">
-        <v>0.20401</v>
+        <v>0.41949</v>
       </c>
       <c r="E14" t="n">
-        <v>0.42075</v>
+        <v>0.16345</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3683</v>
+        <v>0.04308</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45352</v>
+        <v>45689</v>
       </c>
       <c r="B15" t="n">
-        <v>0.25876</v>
+        <v>0.28641</v>
       </c>
       <c r="C15" t="n">
-        <v>0.12537</v>
+        <v>0.17913</v>
       </c>
       <c r="D15" t="n">
-        <v>0.18744</v>
+        <v>0.36172</v>
       </c>
       <c r="E15" t="n">
-        <v>0.42847</v>
+        <v>0.17274</v>
       </c>
       <c r="F15" t="n">
-        <v>0.34472</v>
+        <v>0.04546</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45383</v>
+        <v>45717</v>
       </c>
       <c r="B16" t="n">
-        <v>0.22839</v>
+        <v>0.25538</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1265</v>
+        <v>0.20457</v>
       </c>
       <c r="D16" t="n">
-        <v>0.20794</v>
+        <v>0.37433</v>
       </c>
       <c r="E16" t="n">
-        <v>0.43721</v>
+        <v>0.16572</v>
       </c>
       <c r="F16" t="n">
-        <v>0.34975</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>45413</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.23083</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.13201</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.20343</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.43377</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.33073</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>45444</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.21852</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.17502</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.19643</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.41007</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.32607</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>45474</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.24537</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.20499</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.13893</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.41075</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.32607</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>45505</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.24178</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.21784</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.23053</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.30989</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.25091</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.29039</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.22027</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.39337</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.09601</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.04562</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>45566</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.27644</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.24879</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.38341</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.0914</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.06127</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.2826</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.27216</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.31054</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.13474</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.04725</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>45627</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.31989</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.21466</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.31647</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.15368</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.04725</v>
+        <v>0.04546</v>
       </c>
     </row>
   </sheetData>

--- a/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
+++ b/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
@@ -689,6 +689,46 @@
         <v>0.04546</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.23694</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.21437</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.34707</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.20162</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.04546</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.25321</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.21259</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.36264</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.17156</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.04546</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
+++ b/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
@@ -729,6 +729,26 @@
         <v>0.04546</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.26334</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.19573</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4332</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.10773</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
+++ b/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
@@ -749,6 +749,46 @@
         <v>0.0479</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.26294</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.43953</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.11753</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0479</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.19442</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.18798</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.50987</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.10773</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
+++ b/INFLATIONCONTRIBUTIONWEIGHTS.xlsx
@@ -789,6 +789,66 @@
         <v>0.0479</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.14306</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.21049</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.54474</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.10171</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.05498</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.13266</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.20834</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.54833</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.11067</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.04024</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.13572</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.18174</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.48085</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.20169</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.04024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
